--- a/data/strategies/华安场内策略结果.xlsx
+++ b/data/strategies/华安场内策略结果.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="185">
+  <si>
+    <t>华宝中证医疗ETF</t>
+  </si>
   <si>
     <t>华夏中证5G通信主题ETF</t>
   </si>
@@ -26,9 +29,6 @@
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>华宝中证医疗ETF</t>
-  </si>
-  <si>
     <t>创新消费</t>
   </si>
   <si>
@@ -59,73 +59,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>9.08%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>32.93%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>13.34%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>25.62%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>24.19%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>28.97%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>10.46%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>28.72%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>17.89%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>29.99%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>25.23%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>29.14%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -134,67 +131,67 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>512170.OF</t>
+  </si>
+  <si>
     <t>515050.OF</t>
   </si>
   <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>512170.OF</t>
-  </si>
-  <si>
-    <t>8.98%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>22.09%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>29.60%</t>
-  </si>
-  <si>
-    <t>-0.79%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>17.68%</t>
-  </si>
-  <si>
-    <t>21.94%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>27.93%</t>
-  </si>
-  <si>
-    <t>21.50%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>27.56%</t>
-  </si>
-  <si>
-    <t>26.18%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>34.07%</t>
+    <t>-3.15%</t>
+  </si>
+  <si>
+    <t>6.72%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>13.54%</t>
+  </si>
+  <si>
+    <t>15.41%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>10.33%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>38.50%</t>
+  </si>
+  <si>
+    <t>27.34%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>31.42%</t>
+  </si>
+  <si>
+    <t>23.21%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>35.18%</t>
+  </si>
+  <si>
+    <t>26.37%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -209,7 +206,19 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>002475.SZ</t>
+  </si>
+  <si>
+    <t>300015.SZ</t>
   </si>
   <si>
     <t>603259.SH</t>
@@ -218,361 +227,352 @@
     <t>300760.SZ</t>
   </si>
   <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
+    <t>300782.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
   </si>
   <si>
     <t>300014.SZ</t>
   </si>
   <si>
-    <t>002475.SZ</t>
+    <t>300124.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
   </si>
   <si>
     <t>002241.SZ</t>
   </si>
   <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>300124.SZ</t>
+    <t>603799.SH</t>
   </si>
   <si>
     <t>300347.SZ</t>
   </si>
   <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
     <t>600703.SH</t>
   </si>
   <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
     <t>600763.SH</t>
   </si>
   <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>300496.SZ</t>
-  </si>
-  <si>
-    <t>3.99%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
-    <t>3.05%</t>
-  </si>
-  <si>
-    <t>2.83%</t>
-  </si>
-  <si>
-    <t>2.74%</t>
-  </si>
-  <si>
-    <t>2.52%</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>2.19%</t>
-  </si>
-  <si>
-    <t>2.09%</t>
-  </si>
-  <si>
-    <t>2.03%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>1.84%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
+    <t>300759.SZ</t>
+  </si>
+  <si>
+    <t>300595.SZ</t>
+  </si>
+  <si>
+    <t>377.59%</t>
+  </si>
+  <si>
+    <t>375.80%</t>
+  </si>
+  <si>
+    <t>361.56%</t>
+  </si>
+  <si>
+    <t>343.96%</t>
+  </si>
+  <si>
+    <t>338.65%</t>
+  </si>
+  <si>
+    <t>314.09%</t>
+  </si>
+  <si>
+    <t>262.62%</t>
+  </si>
+  <si>
+    <t>236.64%</t>
+  </si>
+  <si>
+    <t>223.38%</t>
+  </si>
+  <si>
+    <t>218.03%</t>
+  </si>
+  <si>
+    <t>214.61%</t>
+  </si>
+  <si>
+    <t>213.89%</t>
+  </si>
+  <si>
+    <t>208.90%</t>
+  </si>
+  <si>
+    <t>184.77%</t>
+  </si>
+  <si>
+    <t>183.91%</t>
+  </si>
+  <si>
+    <t>181.80%</t>
+  </si>
+  <si>
+    <t>180.23%</t>
+  </si>
+  <si>
+    <t>165.40%</t>
+  </si>
+  <si>
+    <t>140.68%</t>
+  </si>
+  <si>
+    <t>129.72%</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>康龙化成</t>
+  </si>
+  <si>
+    <t>欧普康视</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>消费性电子</t>
+  </si>
+  <si>
+    <t>医疗服务-准分子手术</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>生命信息与支持类产品</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>锂离子电池</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>智能声学整机</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>锂系列产品</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>临床研究相关咨询服务</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>药物发现与研究</t>
+  </si>
+  <si>
+    <t>角膜塑形镜(梦戴维)</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>-18.67%</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>104.69%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>32.76%</t>
+  </si>
+  <si>
+    <t>87.65%</t>
+  </si>
+  <si>
+    <t>70.49%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t xml:space="preserve">锂电池 </t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>9.81%</t>
+  </si>
+  <si>
+    <t>6.61%</t>
+  </si>
+  <si>
+    <t>5.75%</t>
+  </si>
+  <si>
+    <t>5.09%</t>
+  </si>
+  <si>
+    <t>4.72%</t>
+  </si>
+  <si>
+    <t>4.44%</t>
+  </si>
+  <si>
+    <t>3.78%</t>
+  </si>
+  <si>
+    <t>2.23%</t>
+  </si>
+  <si>
+    <t>2.18%</t>
+  </si>
+  <si>
+    <t>2.15%</t>
   </si>
   <si>
     <t>1.80%</t>
-  </si>
-  <si>
-    <t>1.46%</t>
-  </si>
-  <si>
-    <t>1.32%</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>立讯精密</t>
-  </si>
-  <si>
-    <t>歌尔股份</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
-    <t>泰格医药</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>中科创达</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>医疗服务-准分子手术</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
-    <t>消费性电子</t>
-  </si>
-  <si>
-    <t>智能声学整机</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>运营商网络</t>
-  </si>
-  <si>
-    <t>变频器类</t>
-  </si>
-  <si>
-    <t>临床研究相关咨询服务</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>医疗服务</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>技术服务</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>-15.69%</t>
-  </si>
-  <si>
-    <t>16.65%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>49.29%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>37.54%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锂电池 </t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>软件开发</t>
-  </si>
-  <si>
-    <t>22.64%</t>
-  </si>
-  <si>
-    <t>15.46%</t>
-  </si>
-  <si>
-    <t>12.72%</t>
-  </si>
-  <si>
-    <t>10.36%</t>
-  </si>
-  <si>
-    <t>8.10%</t>
-  </si>
-  <si>
-    <t>7.74%</t>
-  </si>
-  <si>
-    <t>6.38%</t>
-  </si>
-  <si>
-    <t>5.23%</t>
-  </si>
-  <si>
-    <t>4.58%</t>
-  </si>
-  <si>
-    <t>4.02%</t>
-  </si>
-  <si>
-    <t>2.76%</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,16 +993,16 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>0.9954180985108819</v>
+      </c>
+      <c r="C3">
         <v>1.013207705897198</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.07818653347421</v>
       </c>
-      <c r="D3">
-        <v>0.9954180985108819</v>
-      </c>
       <c r="E3">
-        <v>1.028780148560128</v>
+        <v>1.028602252486265</v>
       </c>
       <c r="F3">
         <v>1.018168368380631</v>
@@ -1016,16 +1016,16 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.014212379619023</v>
+      </c>
+      <c r="C4">
         <v>1.050811811222344</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.091441744308904</v>
       </c>
-      <c r="D4">
-        <v>1.014212379619023</v>
-      </c>
       <c r="E4">
-        <v>1.052141876711813</v>
+        <v>1.05177588239578</v>
       </c>
       <c r="F4">
         <v>1.027111201157197</v>
@@ -1039,16 +1039,16 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.034618811251114</v>
+      </c>
+      <c r="C5">
         <v>1.030874064103643</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.079195082124676</v>
       </c>
-      <c r="D5">
-        <v>1.034618811251114</v>
-      </c>
       <c r="E5">
-        <v>1.048055766609249</v>
+        <v>1.048093214080724</v>
       </c>
       <c r="F5">
         <v>1.025290909062353</v>
@@ -1062,16 +1062,16 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.043612914174197</v>
+      </c>
+      <c r="C6">
         <v>1.028350298645579</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.111756795696859</v>
       </c>
-      <c r="D6">
-        <v>1.043612914174197</v>
-      </c>
       <c r="E6">
-        <v>1.060911105796946</v>
+        <v>1.061063731952232</v>
       </c>
       <c r="F6">
         <v>1.026858339183711</v>
@@ -1085,16 +1085,16 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.044758389546477</v>
+      </c>
+      <c r="C7">
         <v>1.045175401699335</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.098261454231102</v>
       </c>
-      <c r="D7">
-        <v>1.044758389546477</v>
-      </c>
       <c r="E7">
-        <v>1.062556185024375</v>
+        <v>1.062552014902846</v>
       </c>
       <c r="F7">
         <v>1.029917812005761</v>
@@ -1108,16 +1108,16 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.047770565525434</v>
+      </c>
+      <c r="C8">
         <v>1.061495751661479</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.055998463163961</v>
       </c>
-      <c r="D8">
-        <v>1.047770565525434</v>
-      </c>
       <c r="E8">
-        <v>1.055152335032403</v>
+        <v>1.055015083171043</v>
       </c>
       <c r="F8">
         <v>1.013866573688848</v>
@@ -1131,16 +1131,16 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.059013194179288</v>
+      </c>
+      <c r="C9">
         <v>1.073020947253302</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.083181250600327</v>
       </c>
-      <c r="D9">
-        <v>1.059013194179288</v>
-      </c>
       <c r="E9">
-        <v>1.071751288843396</v>
+        <v>1.071611211312655</v>
       </c>
       <c r="F9">
         <v>1.027660901099557</v>
@@ -1154,16 +1154,16 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.041746213567519</v>
+      </c>
+      <c r="C10">
         <v>1.089761924791789</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.045961002785516</v>
       </c>
-      <c r="D10">
-        <v>1.041746213567519</v>
-      </c>
       <c r="E10">
-        <v>1.05946243582571</v>
+        <v>1.058982278713467</v>
       </c>
       <c r="F10">
         <v>1.020386015005238</v>
@@ -1177,16 +1177,16 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.04331593907768</v>
+      </c>
+      <c r="C11">
         <v>1.086985782787919</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.018345980213236</v>
       </c>
-      <c r="D11">
-        <v>1.04331593907768</v>
-      </c>
       <c r="E11">
-        <v>1.049923599513895</v>
+        <v>1.049486901076793</v>
       </c>
       <c r="F11">
         <v>1.011430617658561</v>
@@ -1200,16 +1200,16 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.040558313181452</v>
+      </c>
+      <c r="C12">
         <v>1.062421132329435</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.040678128902123</v>
       </c>
-      <c r="D12">
-        <v>1.040558313181452</v>
-      </c>
       <c r="E12">
-        <v>1.048031210879588</v>
+        <v>1.047812582688108</v>
       </c>
       <c r="F12">
         <v>1.007914108598721</v>
@@ -1223,16 +1223,16 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.052819142166221</v>
+      </c>
+      <c r="C13">
         <v>1.100361739715656</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.050859667659207</v>
       </c>
-      <c r="D13">
-        <v>1.052819142166221</v>
-      </c>
       <c r="E13">
-        <v>1.068336998745714</v>
+        <v>1.06786157277022</v>
       </c>
       <c r="F13">
         <v>1.023142367573358</v>
@@ -1246,16 +1246,16 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.030758134996394</v>
+      </c>
+      <c r="C14">
         <v>1.078573231261041</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.02165978292191</v>
       </c>
-      <c r="D14">
-        <v>1.030758134996394</v>
-      </c>
       <c r="E14">
-        <v>1.044012811541794</v>
+        <v>1.043534660579148</v>
       </c>
       <c r="F14">
         <v>1.017160061629216</v>
@@ -1269,16 +1269,16 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.076068049722116</v>
+      </c>
+      <c r="C15">
         <v>1.080003365020611</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.069685909134569</v>
       </c>
-      <c r="D15">
-        <v>1.076068049722116</v>
-      </c>
       <c r="E15">
-        <v>1.075299950529714</v>
+        <v>1.075260597376729</v>
       </c>
       <c r="F15">
         <v>1.026434284942462</v>
@@ -1292,16 +1292,16 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.111492936235204</v>
+      </c>
+      <c r="C16">
         <v>1.079750988474804</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.099029872250505</v>
       </c>
-      <c r="D16">
-        <v>1.111492936235204</v>
-      </c>
       <c r="E16">
-        <v>1.096587862881718</v>
+        <v>1.096905282359321</v>
       </c>
       <c r="F16">
         <v>1.04011081950838</v>
@@ -1315,16 +1315,16 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.176997157524076</v>
+      </c>
+      <c r="C17">
         <v>1.056700597291158</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.13019882816252</v>
       </c>
-      <c r="D17">
-        <v>1.176997157524076</v>
-      </c>
       <c r="E17">
-        <v>1.120652878355571</v>
+        <v>1.1218558439579</v>
       </c>
       <c r="F17">
         <v>1.042515364113389</v>
@@ -1338,16 +1338,16 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.190276186839761</v>
+      </c>
+      <c r="C18">
         <v>1.036762850172457</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.1354336759197</v>
       </c>
-      <c r="D18">
-        <v>1.190276186839761</v>
-      </c>
       <c r="E18">
-        <v>1.119983623769258</v>
+        <v>1.121518757135931</v>
       </c>
       <c r="F18">
         <v>1.043693292561303</v>
@@ -1361,16 +1361,16 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.140129820542192</v>
+      </c>
+      <c r="C19">
         <v>1.011861697652898</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.107674574968783</v>
       </c>
-      <c r="D19">
-        <v>1.140129820542192</v>
-      </c>
       <c r="E19">
-        <v>1.085808427720607</v>
+        <v>1.0870911089495</v>
       </c>
       <c r="F19">
         <v>1.026047924411546</v>
@@ -1384,16 +1384,16 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.134741843791099</v>
+      </c>
+      <c r="C20">
         <v>1.015226718263649</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.120785707424839</v>
       </c>
-      <c r="D20">
-        <v>1.134741843791099</v>
-      </c>
       <c r="E20">
-        <v>1.0895011761109</v>
+        <v>1.090696327366175</v>
       </c>
       <c r="F20">
         <v>1.02984870687015</v>
@@ -1407,16 +1407,16 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.090238004327351</v>
+      </c>
+      <c r="C21">
         <v>0.9733322116597963</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.073191816348093</v>
       </c>
-      <c r="D21">
-        <v>1.090238004327351</v>
-      </c>
       <c r="E21">
-        <v>1.044864792787227</v>
+        <v>1.046033850713903</v>
       </c>
       <c r="F21">
         <v>1.007424090364388</v>
@@ -1430,16 +1430,16 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.086080352976115</v>
+      </c>
+      <c r="C22">
         <v>0.9671910490451753</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.052300451445586</v>
       </c>
-      <c r="D22">
-        <v>1.086080352976115</v>
-      </c>
       <c r="E22">
-        <v>1.034510622134521</v>
+        <v>1.03569951517383</v>
       </c>
       <c r="F22">
         <v>0.9967065120596316</v>
@@ -1453,16 +1453,16 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.112468711552331</v>
+      </c>
+      <c r="C23">
         <v>0.9708925717170016</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.048554413600999</v>
       </c>
-      <c r="D23">
-        <v>1.112468711552331</v>
-      </c>
       <c r="E23">
-        <v>1.04324110568438</v>
+        <v>1.044656867082733</v>
       </c>
       <c r="F23">
         <v>1.004110184997589</v>
@@ -1476,16 +1476,16 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.121929489627084</v>
+      </c>
+      <c r="C24">
         <v>0.9812400100950619</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.10436077226011</v>
       </c>
-      <c r="D24">
-        <v>1.121929489627084</v>
-      </c>
       <c r="E24">
-        <v>1.068297389855095</v>
+        <v>1.069704284650415</v>
       </c>
       <c r="F24">
         <v>1.013770768841751</v>
@@ -1499,16 +1499,16 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.12566289084044</v>
+      </c>
+      <c r="C25">
         <v>0.9544039707243207</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.104120641629046</v>
       </c>
-      <c r="D25">
-        <v>1.12566289084044</v>
-      </c>
       <c r="E25">
-        <v>1.0603259157612</v>
+        <v>1.062038504962361</v>
       </c>
       <c r="F25">
         <v>1.00506038061224</v>
@@ -1522,16 +1522,16 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.109032285435493</v>
+      </c>
+      <c r="C26">
         <v>0.941953394464541</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.0789069253674</v>
       </c>
-      <c r="D26">
-        <v>1.109032285435493</v>
-      </c>
       <c r="E26">
-        <v>1.042284093682899</v>
+        <v>1.043954882592608</v>
       </c>
       <c r="F26">
         <v>0.9939815709167896</v>
@@ -1545,16 +1545,16 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.132111492936235</v>
+      </c>
+      <c r="C27">
         <v>0.923529906620678</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.040774181154548</v>
       </c>
-      <c r="D27">
-        <v>1.132111492936235</v>
-      </c>
       <c r="E27">
-        <v>1.031052440700989</v>
+        <v>1.033138256564145</v>
       </c>
       <c r="F27">
         <v>0.9800160512383169</v>
@@ -1568,16 +1568,16 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.145772347376013</v>
+      </c>
+      <c r="C28">
         <v>0.9258854210482038</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.066420132552108</v>
       </c>
-      <c r="D28">
-        <v>1.145772347376013</v>
-      </c>
       <c r="E28">
-        <v>1.044824561532669</v>
+        <v>1.047023430795947</v>
       </c>
       <c r="F28">
         <v>0.9930973392952219</v>
@@ -1591,16 +1591,16 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.168342454711298</v>
+      </c>
+      <c r="C29">
         <v>0.9459072936821737</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.100374603784459</v>
       </c>
-      <c r="D29">
-        <v>1.168342454711298</v>
-      </c>
       <c r="E29">
-        <v>1.070285109155539</v>
+        <v>1.07250946076583</v>
       </c>
       <c r="F29">
         <v>1.014256075362292</v>
@@ -1614,16 +1614,16 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.1979975393492</v>
+      </c>
+      <c r="C30">
         <v>0.9665180449230251</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.116319277687062</v>
       </c>
-      <c r="D30">
-        <v>1.1979975393492</v>
-      </c>
       <c r="E30">
-        <v>1.092340684895795</v>
+        <v>1.094655479840057</v>
       </c>
       <c r="F30">
         <v>1.024824449396979</v>
@@ -1637,16 +1637,16 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.143226846548725</v>
+      </c>
+      <c r="C31">
         <v>0.9695465634727013</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.101239074056287</v>
       </c>
-      <c r="D31">
-        <v>1.143226846548725</v>
-      </c>
       <c r="E31">
-        <v>1.070319585380373</v>
+        <v>1.072056388211133</v>
       </c>
       <c r="F31">
         <v>1.038860644782327</v>
@@ -1660,16 +1660,16 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.156633150905774</v>
+      </c>
+      <c r="C32">
         <v>0.9783797425759232</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.07674574968783</v>
       </c>
-      <c r="D32">
-        <v>1.156633150905774</v>
-      </c>
       <c r="E32">
-        <v>1.069664149671703</v>
+        <v>1.071446683755002</v>
       </c>
       <c r="F32">
         <v>1.052829305603327</v>
@@ -1683,16 +1683,16 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.104280683891222</v>
+      </c>
+      <c r="C33">
         <v>0.9563388575755026</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.056910959562002</v>
       </c>
-      <c r="D33">
-        <v>1.104280683891222</v>
-      </c>
       <c r="E33">
-        <v>1.038348453915235</v>
+        <v>1.039827872178392</v>
       </c>
       <c r="F33">
         <v>1.045538713796369</v>
@@ -1706,16 +1706,16 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.087692503500064</v>
+      </c>
+      <c r="C34">
         <v>0.9532262135105577</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.033618288348862</v>
       </c>
-      <c r="D34">
-        <v>1.087692503500064</v>
-      </c>
       <c r="E34">
-        <v>1.024129473903735</v>
+        <v>1.02547413680363</v>
       </c>
       <c r="F34">
         <v>1.041481928221752</v>
@@ -1729,16 +1729,16 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.046073564973909</v>
+      </c>
+      <c r="C35">
         <v>0.9547404727853958</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="D35">
-        <v>1.046073564973909</v>
-      </c>
       <c r="E35">
-        <v>0.99406298752941</v>
+        <v>0.994976318451295</v>
       </c>
       <c r="F35">
         <v>1.026555218929781</v>
@@ -1752,16 +1752,16 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.042891688939799</v>
+      </c>
+      <c r="C36">
         <v>0.9491040632623875</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="D36">
-        <v>1.042891688939799</v>
-      </c>
       <c r="E36">
-        <v>0.984487713972207</v>
+        <v>0.985425590228981</v>
       </c>
       <c r="F36">
         <v>1.020737822968348</v>
@@ -1775,16 +1775,16 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.014254804632811</v>
+      </c>
+      <c r="C37">
         <v>0.9411121393118532</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="D37">
-        <v>1.014254804632812</v>
-      </c>
       <c r="E37">
-        <v>0.9640473075063267</v>
+        <v>0.9647787341595362</v>
       </c>
       <c r="F37">
         <v>0.9995665223311676</v>
@@ -1798,16 +1798,16 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.028764159348352</v>
+      </c>
+      <c r="C38">
         <v>0.9650879111634558</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.980981654019787</v>
       </c>
-      <c r="D38">
-        <v>1.028764159348352</v>
-      </c>
       <c r="E38">
-        <v>0.9913460082070609</v>
+        <v>0.9919827706889098</v>
       </c>
       <c r="F38">
         <v>1.019055741144727</v>
@@ -1821,16 +1821,16 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.008654702812778</v>
+      </c>
+      <c r="C39">
         <v>0.9701354420795827</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="D39">
-        <v>1.008654702812778</v>
-      </c>
       <c r="E39">
-        <v>0.9863468049535538</v>
+        <v>0.9867319975608857</v>
       </c>
       <c r="F39">
         <v>1.010400322909452</v>
@@ -1844,16 +1844,16 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.026727758686522</v>
+      </c>
+      <c r="C40">
         <v>0.9747623454193657</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="D40">
-        <v>1.026727758686522</v>
-      </c>
       <c r="E40">
-        <v>0.9973390600471539</v>
+        <v>0.9978587141798256</v>
       </c>
       <c r="F40">
         <v>1.024758485403896</v>
@@ -1867,16 +1867,16 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9777268677612321</v>
+      </c>
+      <c r="C41">
         <v>0.9380836207621771</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="D41">
-        <v>0.977726867761232</v>
-      </c>
       <c r="E41">
-        <v>0.9496796536781511</v>
+        <v>0.9500760861481417</v>
       </c>
       <c r="F41">
         <v>1.005478152568434</v>
@@ -1890,16 +1890,16 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.980654193712613</v>
+      </c>
+      <c r="C42">
         <v>0.9501976949608815</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="D42">
-        <v>0.9806541937126129</v>
-      </c>
       <c r="E42">
-        <v>0.9546852133614153</v>
+        <v>0.9549897783489327</v>
       </c>
       <c r="F42">
         <v>1.005715308829281</v>
@@ -1913,16 +1913,16 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9222349497263587</v>
+      </c>
+      <c r="C43">
         <v>0.923109279044334</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="D43">
-        <v>0.9222349497263587</v>
-      </c>
       <c r="E43">
-        <v>0.9100153587294939</v>
+        <v>0.9100066154363141</v>
       </c>
       <c r="F43">
         <v>0.9826137761087841</v>
@@ -1936,16 +1936,16 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8939798905434645</v>
+      </c>
+      <c r="C44">
         <v>0.8900479515437032</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="D44">
-        <v>0.8939798905434645</v>
-      </c>
       <c r="E44">
-        <v>0.8844263247858181</v>
+        <v>0.8844656441758156</v>
       </c>
       <c r="F44">
         <v>0.9593049279814547</v>
@@ -1959,16 +1959,16 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9166348479063257</v>
+      </c>
+      <c r="C45">
         <v>0.8817195255320939</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.890500432235136</v>
       </c>
-      <c r="D45">
-        <v>0.9166348479063254</v>
-      </c>
       <c r="E45">
-        <v>0.8961392811275943</v>
+        <v>0.8964884343513366</v>
       </c>
       <c r="F45">
         <v>0.952121135020441</v>
@@ -1982,16 +1982,16 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9417080310551101</v>
+      </c>
+      <c r="C46">
         <v>0.8910574577269285</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="D46">
-        <v>0.9417080310551101</v>
-      </c>
       <c r="E46">
-        <v>0.9162733731772343</v>
+        <v>0.9167798789105162</v>
       </c>
       <c r="F46">
         <v>0.9759262836671583</v>
@@ -2005,16 +2005,16 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9434898816342115</v>
+      </c>
+      <c r="C47">
         <v>0.8754101118869352</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="D47">
-        <v>0.9434898816342115</v>
-      </c>
       <c r="E47">
-        <v>0.9128408732580546</v>
+        <v>0.9135216709555274</v>
       </c>
       <c r="F47">
         <v>0.9772691220977807</v>
@@ -2028,16 +2028,16 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8962708412880235</v>
+      </c>
+      <c r="C48">
         <v>0.8388996382602842</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="D48">
-        <v>0.8962708412880235</v>
-      </c>
       <c r="E48">
-        <v>0.8754784935154962</v>
+        <v>0.8760522055457736</v>
       </c>
       <c r="F48">
         <v>0.9696502808966706</v>
@@ -2051,16 +2051,16 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.902634593356243</v>
+      </c>
+      <c r="C49">
         <v>0.8369647514091023</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.894870809720488</v>
       </c>
-      <c r="D49">
-        <v>0.902634593356243</v>
-      </c>
       <c r="E49">
-        <v>0.8777447984944161</v>
+        <v>0.8784014969138876</v>
       </c>
       <c r="F49">
         <v>0.9730065916875945</v>
@@ -2074,16 +2074,16 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9117983963344788</v>
+      </c>
+      <c r="C50">
         <v>0.849751829729957</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="D50">
-        <v>0.9117983963344788</v>
-      </c>
       <c r="E50">
-        <v>0.8925653122819082</v>
+        <v>0.8931857779479533</v>
       </c>
       <c r="F50">
         <v>0.9777371523344186</v>
@@ -2097,16 +2097,16 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9280896016291206</v>
+      </c>
+      <c r="C51">
         <v>0.8450408008749053</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="D51">
-        <v>0.9280896016291205</v>
-      </c>
       <c r="E51">
-        <v>0.8974332151122844</v>
+        <v>0.8982637031198266</v>
       </c>
       <c r="F51">
         <v>0.9853544229642648</v>
@@ -2120,16 +2120,16 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9075983199694539</v>
+      </c>
+      <c r="C52">
         <v>0.8251030537562042</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="D52">
-        <v>0.9075983199694539</v>
-      </c>
       <c r="E52">
-        <v>0.8737808375314228</v>
+        <v>0.8746057901935552</v>
       </c>
       <c r="F52">
         <v>0.9747907606433689</v>
@@ -2143,16 +2143,16 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9096347206312841</v>
+      </c>
+      <c r="C53">
         <v>0.8362076217716833</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="D53">
-        <v>0.9096347206312841</v>
-      </c>
       <c r="E53">
-        <v>0.8819369803412312</v>
+        <v>0.8826712513298272</v>
       </c>
       <c r="F53">
         <v>0.9903535512972134</v>
@@ -2166,16 +2166,16 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9061982945144458</v>
+      </c>
+      <c r="C54">
         <v>0.8288045764280305</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="D54">
-        <v>0.9061982945144458</v>
-      </c>
       <c r="E54">
-        <v>0.8673345267455599</v>
+        <v>0.868108463926424</v>
       </c>
       <c r="F54">
         <v>0.9767649687220733</v>
@@ -2189,16 +2189,16 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9079801450935472</v>
+      </c>
+      <c r="C55">
         <v>0.8125683519811558</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="D55">
-        <v>0.9079801450935472</v>
-      </c>
       <c r="E55">
-        <v>0.852607772944916</v>
+        <v>0.8535618908760398</v>
       </c>
       <c r="F55">
         <v>0.9647296811269164</v>
@@ -2212,16 +2212,16 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9242713503881889</v>
+      </c>
+      <c r="C56">
         <v>0.8184571380499704</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="D56">
-        <v>0.9242713503881889</v>
-      </c>
       <c r="E56">
-        <v>0.8645663096124461</v>
+        <v>0.8656244517358282</v>
       </c>
       <c r="F56">
         <v>0.9670651205963146</v>
@@ -2235,16 +2235,16 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9536718849433626</v>
+      </c>
+      <c r="C57">
         <v>0.8378060065617902</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="D57">
-        <v>0.9536718849433626</v>
-      </c>
       <c r="E57">
-        <v>0.8948889800917296</v>
+        <v>0.8960476388755454</v>
       </c>
       <c r="F57">
         <v>0.9818881721848689</v>
@@ -2258,16 +2258,16 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.955453735522464</v>
+      </c>
+      <c r="C58">
         <v>0.832842601160932</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="D58">
-        <v>0.955453735522464</v>
-      </c>
       <c r="E58">
-        <v>0.890191795831951</v>
+        <v>0.8914179071755663</v>
       </c>
       <c r="F58">
         <v>0.9823829021329928</v>
@@ -2281,16 +2281,16 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9709812905689195</v>
+      </c>
+      <c r="C59">
         <v>0.8363758728022208</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="D59">
-        <v>0.9709812905689195</v>
-      </c>
       <c r="E59">
-        <v>0.9006061457410652</v>
+        <v>0.9019521999187323</v>
       </c>
       <c r="F59">
         <v>0.9863752942857905</v>
@@ -2304,16 +2304,16 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9655084637902507</v>
+      </c>
+      <c r="C60">
         <v>0.8363758728022208</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0.883872826817789</v>
       </c>
-      <c r="D60">
-        <v>0.9655084637902509</v>
-      </c>
       <c r="E60">
-        <v>0.8946636226534082</v>
+        <v>0.8959549485632885</v>
       </c>
       <c r="F60">
         <v>0.9822462624330348</v>
@@ -2327,16 +2327,16 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9922362224767723</v>
+      </c>
+      <c r="C61">
         <v>0.8510137124589888</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="D61">
-        <v>0.9922362224767723</v>
-      </c>
       <c r="E61">
-        <v>0.9140552119457741</v>
+        <v>0.9154674370459519</v>
       </c>
       <c r="F61">
         <v>0.9912911823417532</v>
@@ -2350,16 +2350,16 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.001272750413644</v>
+      </c>
+      <c r="C62">
         <v>0.8673340624211322</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>0.913937181826914</v>
       </c>
-      <c r="D62">
-        <v>1.001272750413644</v>
-      </c>
       <c r="E62">
-        <v>0.926912858862569</v>
+        <v>0.9282522457424942</v>
       </c>
       <c r="F62">
         <v>0.9936391863812625</v>
@@ -2373,16 +2373,16 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.9826905943744432</v>
+      </c>
+      <c r="C63">
         <v>0.8669134348447883</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="D63">
-        <v>0.9826905943744432</v>
-      </c>
       <c r="E63">
-        <v>0.9220799585638421</v>
+        <v>0.9232377301591386</v>
       </c>
       <c r="F63">
         <v>0.9962290583954103</v>
@@ -2396,16 +2396,16 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9717449408171058</v>
+      </c>
+      <c r="C64">
         <v>0.8627912845966181</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>0.911391797137643</v>
       </c>
-      <c r="D64">
-        <v>0.9717449408171057</v>
-      </c>
       <c r="E64">
-        <v>0.9147841602879172</v>
+        <v>0.9158736968501222</v>
       </c>
       <c r="F64">
         <v>0.9970112028848254</v>
@@ -2419,16 +2419,16 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9900725467735777</v>
+      </c>
+      <c r="C65">
         <v>0.8637166652645747</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="D65">
-        <v>0.9900725467735778</v>
-      </c>
       <c r="E65">
-        <v>0.9195461888939902</v>
+        <v>0.9208097477090802</v>
       </c>
       <c r="F65">
         <v>0.9983728881706143</v>
@@ -2442,16 +2442,16 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9788723431335116</v>
+      </c>
+      <c r="C66">
         <v>0.8587532598637165</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="D66">
-        <v>0.9788723431335116</v>
-      </c>
       <c r="E66">
-        <v>0.9089008214686178</v>
+        <v>0.9101020123013157</v>
       </c>
       <c r="F66">
         <v>0.9949945893819959</v>
@@ -2465,16 +2465,16 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9441262568410335</v>
+      </c>
+      <c r="C67">
         <v>0.846302683603937</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="D67">
-        <v>0.9441262568410335</v>
-      </c>
       <c r="E67">
-        <v>0.8832643312891135</v>
+        <v>0.8842425670214844</v>
       </c>
       <c r="F67">
         <v>0.9779036328883906</v>
@@ -2488,16 +2488,16 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9574901361842942</v>
+      </c>
+      <c r="C68">
         <v>0.8494153276688819</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="D68">
-        <v>0.9574901361842942</v>
-      </c>
       <c r="E68">
-        <v>0.8904126643493897</v>
+        <v>0.8914934124345438</v>
       </c>
       <c r="F68">
         <v>0.9752902023052845</v>
@@ -2511,16 +2511,16 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9670357642866233</v>
+      </c>
+      <c r="C69">
         <v>0.8579120047110288</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="D69">
-        <v>0.9670357642866233</v>
-      </c>
       <c r="E69">
-        <v>0.9099704660850896</v>
+        <v>0.9110617036808457</v>
       </c>
       <c r="F69">
         <v>0.9858805643376666</v>
@@ -2534,16 +2534,16 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9658902889143439</v>
+      </c>
+      <c r="C70">
         <v>0.850508959367376</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="D70">
-        <v>0.9658902889143439</v>
-      </c>
       <c r="E70">
-        <v>0.9065365706592896</v>
+        <v>0.9076903839547593</v>
       </c>
       <c r="F70">
         <v>0.9857627714928752</v>
@@ -2557,16 +2557,16 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.964235713376607</v>
+      </c>
+      <c r="C71">
         <v>0.8528644737949019</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="D71">
-        <v>0.964235713376607</v>
-      </c>
       <c r="E71">
-        <v>0.9048420551742233</v>
+        <v>0.9059557675700404</v>
       </c>
       <c r="F71">
         <v>0.9956777878817863</v>
@@ -2580,16 +2580,16 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9862542955326461</v>
+      </c>
+      <c r="C72">
         <v>0.883570286868007</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="D72">
-        <v>0.9862542955326461</v>
-      </c>
       <c r="E72">
-        <v>0.942263849063393</v>
+        <v>0.9432906891500394</v>
       </c>
       <c r="F72">
         <v>1.009132871899496</v>
@@ -2603,16 +2603,16 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9973272241313479</v>
+      </c>
+      <c r="C73">
         <v>0.8771767477075796</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="D73">
-        <v>0.9973272241313479</v>
-      </c>
       <c r="E73">
-        <v>0.9410339978842389</v>
+        <v>0.9422355026484767</v>
       </c>
       <c r="F73">
         <v>1.009648019274051</v>
@@ -2626,16 +2626,16 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.013363879343261</v>
+      </c>
+      <c r="C74">
         <v>0.8742323546731722</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="D74">
-        <v>1.013363879343261</v>
-      </c>
       <c r="E74">
-        <v>0.9448653904446165</v>
+        <v>0.9462567056913174</v>
       </c>
       <c r="F74">
         <v>1.008347586267553</v>
@@ -2649,16 +2649,16 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.014000254550083</v>
+      </c>
+      <c r="C75">
         <v>0.8915622108185413</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="D75">
-        <v>1.014000254550083</v>
-      </c>
       <c r="E75">
-        <v>0.9517599764348021</v>
+        <v>0.9529843568721176</v>
       </c>
       <c r="F75">
         <v>1.012306996423809</v>
@@ -2672,16 +2672,16 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.05307369224895</v>
+      </c>
+      <c r="C76">
         <v>0.8863464288718769</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="D76">
-        <v>1.05307369224895</v>
-      </c>
       <c r="E76">
-        <v>0.9675878856436652</v>
+        <v>0.9692551582774359</v>
       </c>
       <c r="F76">
         <v>1.015022514139068</v>
@@ -2695,16 +2695,16 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.049000890925289</v>
+      </c>
+      <c r="C77">
         <v>0.8839067889290821</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="D77">
-        <v>1.049000890925289</v>
-      </c>
       <c r="E77">
-        <v>0.9611511044024093</v>
+        <v>0.9628020454223712</v>
       </c>
       <c r="F77">
         <v>1.011864095327393</v>
@@ -2718,16 +2718,16 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.07483772432226</v>
+      </c>
+      <c r="C78">
         <v>0.8839909144443509</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="D78">
-        <v>1.07483772432226</v>
-      </c>
       <c r="E78">
-        <v>0.9674395092026256</v>
+        <v>0.9693479773014047</v>
       </c>
       <c r="F78">
         <v>1.012434212696184</v>
@@ -2741,16 +2741,16 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.083619702176403</v>
+      </c>
+      <c r="C79">
         <v>0.8803735172877933</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="D79">
-        <v>1.083619702176403</v>
-      </c>
       <c r="E79">
-        <v>0.9776975997956596</v>
+        <v>0.9797300616445456</v>
       </c>
       <c r="F79">
         <v>1.019259915409032</v>
@@ -2764,16 +2764,16 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.083619702176403</v>
+      </c>
+      <c r="C80">
         <v>0.8811306469252125</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="D80">
-        <v>1.083619702176403</v>
-      </c>
       <c r="E80">
-        <v>0.9777965376558801</v>
+        <v>0.9798214282083921</v>
       </c>
       <c r="F80">
         <v>1.019603870515823</v>
@@ -2787,16 +2787,16 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.088583428789614</v>
+      </c>
+      <c r="C81">
         <v>0.8718768402456464</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="D81">
-        <v>1.088583428789614</v>
-      </c>
       <c r="E81">
-        <v>0.9830556346118132</v>
+        <v>0.9852227004972529</v>
       </c>
       <c r="F81">
         <v>1.018626975189686</v>
@@ -2810,16 +2810,16 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.055619193076238</v>
+      </c>
+      <c r="C82">
         <v>0.8579961302262976</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="D82">
-        <v>1.055619193076238</v>
-      </c>
       <c r="E82">
-        <v>0.9650014590640428</v>
+        <v>0.9669776896925422</v>
       </c>
       <c r="F82">
         <v>1.01919866312974</v>
@@ -2833,16 +2833,16 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.015145729922362</v>
+      </c>
+      <c r="C83">
         <v>0.8318330949777066</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="D83">
-        <v>1.015145729922362</v>
-      </c>
       <c r="E83">
-        <v>0.9331138222754349</v>
+        <v>0.9349469486248814</v>
       </c>
       <c r="F83">
         <v>1.012145227583629</v>
@@ -2856,16 +2856,16 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.025964108438335</v>
+      </c>
+      <c r="C84">
         <v>0.8200555228400773</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="D84">
-        <v>1.025964108438335</v>
-      </c>
       <c r="E84">
-        <v>0.9356432049074954</v>
+        <v>0.9377022907634779</v>
       </c>
       <c r="F84">
         <v>1.017100379921189</v>
@@ -2879,16 +2879,16 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.044546264477536</v>
+      </c>
+      <c r="C85">
         <v>0.8210650290233027</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="D85">
-        <v>1.044546264477536</v>
-      </c>
       <c r="E85">
-        <v>0.9355413705179044</v>
+        <v>0.9377761828724467</v>
       </c>
       <c r="F85">
         <v>1.013967090249737</v>
@@ -2902,16 +2902,16 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.068983072419498</v>
+      </c>
+      <c r="C86">
         <v>0.8262808109699671</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="D86">
-        <v>1.068983072419498</v>
-      </c>
       <c r="E86">
-        <v>0.9465992268676816</v>
+        <v>0.949026249482177</v>
       </c>
       <c r="F86">
         <v>1.022763859898761</v>
@@ -2925,16 +2925,16 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.074964999363625</v>
+      </c>
+      <c r="C87">
         <v>0.8245983006645915</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="D87">
-        <v>1.074964999363625</v>
-      </c>
       <c r="E87">
-        <v>0.9407108432963339</v>
+        <v>0.9432145102833241</v>
       </c>
       <c r="F87">
         <v>1.011295548529867</v>
@@ -2948,16 +2948,16 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.082092401680031</v>
+      </c>
+      <c r="C88">
         <v>0.8393202658366282</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="D88">
-        <v>1.08209240168003</v>
-      </c>
       <c r="E88">
-        <v>0.9578628023990501</v>
+        <v>0.9602905237574841</v>
       </c>
       <c r="F88">
         <v>1.024923395386604</v>
@@ -2971,16 +2971,16 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.11136566119384</v>
+      </c>
+      <c r="C89">
         <v>0.8535374779170521</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>1.002449332436846</v>
       </c>
-      <c r="D89">
-        <v>1.11136566119384</v>
-      </c>
       <c r="E89">
-        <v>0.987761690389924</v>
+        <v>0.990339972222692</v>
       </c>
       <c r="F89">
         <v>1.033143765381782</v>
@@ -2994,16 +2994,16 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.104492808960163</v>
+      </c>
+      <c r="C90">
         <v>0.8547993606460839</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1.003361828834886</v>
       </c>
-      <c r="D90">
-        <v>1.104492808960163</v>
-      </c>
       <c r="E90">
-        <v>0.9862238130920349</v>
+        <v>0.9887207475751756</v>
       </c>
       <c r="F90">
         <v>1.036514211314081</v>
@@ -3017,16 +3017,16 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.094310805651012</v>
+      </c>
+      <c r="C91">
         <v>0.8642214183561875</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>1.040149841513784</v>
       </c>
-      <c r="D91">
-        <v>1.094310805651012</v>
-      </c>
       <c r="E91">
-        <v>0.9982072958054863</v>
+        <v>1.000508189678435</v>
       </c>
       <c r="F91">
         <v>1.034125372421711</v>
@@ -3040,16 +3040,16 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.10818378515973</v>
+      </c>
+      <c r="C92">
         <v>0.8706990830318835</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>1.044616271251561</v>
       </c>
-      <c r="D92">
-        <v>1.10818378515973</v>
-      </c>
       <c r="E92">
-        <v>1.006461706846566</v>
+        <v>1.008836553867845</v>
       </c>
       <c r="F92">
         <v>1.028521574152166</v>
@@ -3063,16 +3063,16 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.113911162021128</v>
+      </c>
+      <c r="C93">
         <v>0.8605198956843609</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1.040437998271059</v>
       </c>
-      <c r="D93">
-        <v>1.113911162021128</v>
-      </c>
       <c r="E93">
-        <v>1.003511987429105</v>
+        <v>1.006045900092472</v>
       </c>
       <c r="F93">
         <v>1.025246933066964</v>
@@ -3086,16 +3086,16 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.11022018582156</v>
+      </c>
+      <c r="C94">
         <v>0.8762513670396231</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>1.046825473057343</v>
       </c>
-      <c r="D94">
-        <v>1.11022018582156</v>
-      </c>
       <c r="E94">
-        <v>1.00975053222351</v>
+        <v>1.012090220411329</v>
       </c>
       <c r="F94">
         <v>1.027800681942043</v>
@@ -3109,16 +3109,16 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.13834796996309</v>
+      </c>
+      <c r="C95">
         <v>0.8977033734331622</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>1.060320814523101</v>
       </c>
-      <c r="D95">
-        <v>1.13834796996309</v>
-      </c>
       <c r="E95">
-        <v>1.030779845847718</v>
+        <v>1.033186291813017</v>
       </c>
       <c r="F95">
         <v>1.0396663478407</v>
@@ -3132,16 +3132,16 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.134529718722159</v>
+      </c>
+      <c r="C96">
         <v>0.8869353074787583</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>1.051195850542695</v>
       </c>
-      <c r="D96">
-        <v>1.134529718722159</v>
-      </c>
       <c r="E96">
-        <v>1.02284744240018</v>
+        <v>1.025323386512614</v>
       </c>
       <c r="F96">
         <v>1.041007615700059</v>
@@ -3155,16 +3155,16 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.156166475754105</v>
+      </c>
+      <c r="C97">
         <v>0.9103222007234795</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>1.054605705503794</v>
       </c>
-      <c r="D97">
-        <v>1.156166475754105</v>
-      </c>
       <c r="E97">
-        <v>1.03906436806109</v>
+        <v>1.041522810811396</v>
       </c>
       <c r="F97">
         <v>1.049991283329486</v>
@@ -3178,16 +3178,16 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.130329642357134</v>
+      </c>
+      <c r="C98">
         <v>0.9077143097501471</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>1.100230525405821</v>
       </c>
-      <c r="D98">
-        <v>1.130329642357134</v>
-      </c>
       <c r="E98">
-        <v>1.044707720676825</v>
+        <v>1.046933874002895</v>
       </c>
       <c r="F98">
         <v>1.047283618470546</v>
@@ -3201,16 +3201,16 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.142929871452208</v>
+      </c>
+      <c r="C99">
         <v>0.9178934970976697</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1.15565267505523</v>
       </c>
-      <c r="D99">
-        <v>1.142929871452208</v>
-      </c>
       <c r="E99">
-        <v>1.070616029360663</v>
+        <v>1.072866393104208</v>
       </c>
       <c r="F99">
         <v>1.0568358328975</v>
@@ -3224,16 +3224,16 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.1676212294769</v>
+      </c>
+      <c r="C100">
         <v>0.9247917893497096</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1.144894822783594</v>
       </c>
-      <c r="D100">
-        <v>1.1676212294769</v>
-      </c>
       <c r="E100">
-        <v>1.077559505624864</v>
+        <v>1.079987800026136</v>
       </c>
       <c r="F100">
         <v>1.058527338148705</v>
@@ -3247,16 +3247,16 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.142038946162657</v>
+      </c>
+      <c r="C101">
         <v>0.9076301842348783</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1.139131687638075</v>
       </c>
-      <c r="D101">
-        <v>1.142038946162657</v>
-      </c>
       <c r="E101">
-        <v>1.0613805717941</v>
+        <v>1.063724659413378</v>
       </c>
       <c r="F101">
         <v>1.049366195966459</v>
@@ -3270,16 +3270,16 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.130838742522591</v>
+      </c>
+      <c r="C102">
         <v>0.913098342727349</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1.133560656997407</v>
       </c>
-      <c r="D102">
-        <v>1.130838742522591</v>
-      </c>
       <c r="E102">
-        <v>1.057705238368898</v>
+        <v>1.059882642366851</v>
       </c>
       <c r="F102">
         <v>1.047214513334935</v>
@@ -3293,16 +3293,16 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.144329896907216</v>
+      </c>
+      <c r="C103">
         <v>0.9188188777656263</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1.162376332725003</v>
       </c>
-      <c r="D103">
-        <v>1.144329896907217</v>
-      </c>
       <c r="E103">
-        <v>1.073611474218945</v>
+        <v>1.075866584410361</v>
       </c>
       <c r="F103">
         <v>1.051192770346358</v>
@@ -3316,16 +3316,16 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.145984472444953</v>
+      </c>
+      <c r="C104">
         <v>0.9332884663918566</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>1.137114590337144</v>
       </c>
-      <c r="D104">
-        <v>1.145984472444953</v>
-      </c>
       <c r="E104">
-        <v>1.070740769291323</v>
+        <v>1.072867729351854</v>
       </c>
       <c r="F104">
         <v>1.055659475020849</v>
@@ -3339,16 +3339,16 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.134402443680794</v>
+      </c>
+      <c r="C105">
         <v>0.9299234457811053</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>1.128710018249928</v>
       </c>
-      <c r="D105">
-        <v>1.134402443680794</v>
-      </c>
       <c r="E105">
-        <v>1.063001084002714</v>
+        <v>1.065045873981711</v>
       </c>
       <c r="F105">
         <v>1.049857784772055</v>
@@ -3362,16 +3362,16 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.139238895252641</v>
+      </c>
+      <c r="C106">
         <v>0.9330360898460502</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>1.127413312842186</v>
       </c>
-      <c r="D106">
-        <v>1.139238895252641</v>
-      </c>
       <c r="E106">
-        <v>1.06522749921895</v>
+        <v>1.067289527273016</v>
       </c>
       <c r="F106">
         <v>1.051167641206136</v>
@@ -3385,16 +3385,16 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.149039073437699</v>
+      </c>
+      <c r="C107">
         <v>0.9399343820980902</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.169964460666603</v>
       </c>
-      <c r="D107">
-        <v>1.149039073437699</v>
-      </c>
       <c r="E107">
-        <v>1.08484885616777</v>
+        <v>1.086939903081166</v>
       </c>
       <c r="F107">
         <v>1.062591976579641</v>
@@ -3408,16 +3408,16 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.139620720376734</v>
+      </c>
+      <c r="C108">
         <v>0.9272314292925043</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>1.182163096724618</v>
       </c>
-      <c r="D108">
-        <v>1.139620720376734</v>
-      </c>
       <c r="E108">
-        <v>1.081447345602898</v>
+        <v>1.08357123851374</v>
       </c>
       <c r="F108">
         <v>1.056353667519487</v>
@@ -3431,16 +3431,16 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.126638666157567</v>
+      </c>
+      <c r="C109">
         <v>0.9325313367544376</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1.177408510229565</v>
       </c>
-      <c r="D109">
-        <v>1.126638666157566</v>
-      </c>
       <c r="E109">
-        <v>1.077396222704262</v>
+        <v>1.079337295998294</v>
       </c>
       <c r="F109">
         <v>1.046575290830534</v>
@@ -3454,16 +3454,16 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.082983326969581</v>
+      </c>
+      <c r="C110">
         <v>0.9085555649028351</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>1.10147920468735</v>
       </c>
-      <c r="D110">
-        <v>1.082983326969581</v>
-      </c>
       <c r="E110">
-        <v>1.029781527513751</v>
+        <v>1.031525805134419</v>
       </c>
       <c r="F110">
         <v>1.031282638434078</v>
@@ -3477,16 +3477,16 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.097365406643757</v>
+      </c>
+      <c r="C111">
         <v>0.943131151678304</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>1.133128421861493</v>
       </c>
-      <c r="D111">
-        <v>1.097365406643757</v>
-      </c>
       <c r="E111">
-        <v>1.056727554977356</v>
+        <v>1.05826989752701</v>
       </c>
       <c r="F111">
         <v>1.03911664789834</v>
@@ -3500,16 +3500,16 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.117602138220695</v>
+      </c>
+      <c r="C112">
         <v>0.9551611003617396</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>1.187926231870138</v>
       </c>
-      <c r="D112">
-        <v>1.117602138220695</v>
-      </c>
       <c r="E112">
-        <v>1.085579136252966</v>
+        <v>1.087203546631556</v>
       </c>
       <c r="F112">
         <v>1.045648653784841</v>
@@ -3523,16 +3523,16 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.138602520045819</v>
+      </c>
+      <c r="C113">
         <v>0.9678640531673256</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>1.192968975122467</v>
       </c>
-      <c r="D113">
-        <v>1.138602520045819</v>
-      </c>
       <c r="E113">
-        <v>1.098492371482425</v>
+        <v>1.10019975615121</v>
       </c>
       <c r="F113">
         <v>1.053410416970965</v>
@@ -3546,16 +3546,16 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.168130329642357</v>
+      </c>
+      <c r="C114">
         <v>0.9639101539496928</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1.193593314763231</v>
       </c>
-      <c r="D114">
-        <v>1.168130329642357</v>
-      </c>
       <c r="E114">
-        <v>1.10709825499674</v>
+        <v>1.109140456753666</v>
       </c>
       <c r="F114">
         <v>1.058532049862497</v>
@@ -3569,16 +3569,16 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.16125747740868</v>
+      </c>
+      <c r="C115">
         <v>0.9904096912593588</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1.227211603112093</v>
       </c>
-      <c r="D115">
-        <v>1.16125747740868</v>
-      </c>
       <c r="E115">
-        <v>1.124934091600037</v>
+        <v>1.12664256946153</v>
       </c>
       <c r="F115">
         <v>1.066410035322148</v>
@@ -3592,16 +3592,16 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.1415298459972</v>
+      </c>
+      <c r="C116">
         <v>0.9897366871372087</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.212563634617232</v>
       </c>
-      <c r="D116">
-        <v>1.1415298459972</v>
-      </c>
       <c r="E116">
-        <v>1.113361322229414</v>
+        <v>1.114879253818013</v>
       </c>
       <c r="F116">
         <v>1.060900471328436</v>
@@ -3615,16 +3615,16 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.176785032455136</v>
+      </c>
+      <c r="C117">
         <v>0.9920922015647345</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>1.235616175199308</v>
       </c>
-      <c r="D117">
-        <v>1.176785032455136</v>
-      </c>
       <c r="E117">
-        <v>1.133403747057977</v>
+        <v>1.13525067536688</v>
       </c>
       <c r="F117">
         <v>1.070094595507224</v>
@@ -3638,22 +3638,229 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>0.9920922015647345</v>
+        <v>1.19345806287387</v>
       </c>
       <c r="C118">
-        <v>1.235616175199308</v>
+        <v>1.010683940439135</v>
       </c>
       <c r="D118">
-        <v>1.176785032455136</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="E118">
-        <v>1.133403747057977</v>
+        <v>1.157483172583619</v>
       </c>
       <c r="F118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="G118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.191676212294769</v>
+      </c>
+      <c r="C119">
+        <v>0.9960461007823672</v>
+      </c>
+      <c r="D119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="E119">
+        <v>1.153029470842303</v>
+      </c>
+      <c r="F119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="G119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.195367188494336</v>
+      </c>
+      <c r="C120">
+        <v>1.016488600992681</v>
+      </c>
+      <c r="D120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="E120">
+        <v>1.172124462974683</v>
+      </c>
+      <c r="F120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="G120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.216240295278096</v>
+      </c>
+      <c r="C121">
+        <v>1.001934886851182</v>
+      </c>
+      <c r="D121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="E121">
+        <v>1.168760635685353</v>
+      </c>
+      <c r="F121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="G121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.153748249968181</v>
+      </c>
+      <c r="C122">
+        <v>0.9756036005720534</v>
+      </c>
+      <c r="D122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="E122">
+        <v>1.137318396751103</v>
+      </c>
+      <c r="F122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="G122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.156930126002291</v>
+      </c>
+      <c r="C123">
+        <v>0.997644485572474</v>
+      </c>
+      <c r="D123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="E123">
+        <v>1.15735416080902</v>
+      </c>
+      <c r="F123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="G123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.100420007636502</v>
+      </c>
+      <c r="C124">
+        <v>0.9886430554387146</v>
+      </c>
+      <c r="D124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="E124">
+        <v>1.135693253134967</v>
+      </c>
+      <c r="F124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="G124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.140384370624921</v>
+      </c>
+      <c r="C125">
+        <v>0.9970556069655926</v>
+      </c>
+      <c r="D125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="E125">
+        <v>1.176448307274523</v>
+      </c>
+      <c r="F125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="G125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.105892834415171</v>
+      </c>
+      <c r="C126">
+        <v>1.010768065954404</v>
+      </c>
+      <c r="D126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="E126">
+        <v>1.17677439171335</v>
+      </c>
+      <c r="F126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="G126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.103347333587883</v>
+      </c>
+      <c r="C127">
+        <v>0.9957095987212921</v>
+      </c>
+      <c r="D127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="E127">
+        <v>1.178895635313534</v>
+      </c>
+      <c r="F127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="G127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3765,18 +3972,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3808,131 +4015,119 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>36.49</v>
+        <v>12.25669956207275</v>
       </c>
       <c r="K2">
-        <v>4.69</v>
+        <v>50.5802001953125</v>
       </c>
       <c r="L2">
-        <v>12.7</v>
-      </c>
-      <c r="M2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>77.6234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J3">
-        <v>133.48</v>
+        <v>4.694399833679199</v>
       </c>
       <c r="K3">
-        <v>9.199999999999999</v>
+        <v>36.40560150146484</v>
       </c>
       <c r="L3">
-        <v>4.83</v>
-      </c>
-      <c r="M3">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>6.4975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>53.46</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K4">
-        <v>12.86</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L4">
-        <v>35.09</v>
-      </c>
-      <c r="M4">
-        <v>77.62</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -3950,19 +4145,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3970,10 +4165,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
@@ -3990,10 +4185,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -4010,10 +4205,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
@@ -4030,10 +4225,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -4050,10 +4245,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
@@ -4070,10 +4265,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
@@ -4090,10 +4285,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -4110,10 +4305,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
@@ -4130,10 +4325,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
@@ -4150,10 +4345,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>112</v>
@@ -4170,10 +4365,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>113</v>
@@ -4190,10 +4385,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>114</v>
@@ -4210,10 +4405,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
@@ -4230,10 +4425,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>116</v>
@@ -4250,10 +4445,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -4270,10 +4465,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>118</v>
@@ -4290,7 +4485,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
@@ -4310,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
@@ -4330,7 +4525,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -4350,7 +4545,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
@@ -4388,7 +4583,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>165</v>
@@ -4399,7 +4594,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>166</v>
@@ -4410,7 +4605,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>167</v>
@@ -4421,7 +4616,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>140</v>
@@ -4432,7 +4627,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>168</v>
@@ -4443,7 +4638,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>169</v>
@@ -4454,10 +4649,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>180</v>
@@ -4465,10 +4660,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>181</v>
@@ -4476,10 +4671,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>182</v>
@@ -4487,10 +4682,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>183</v>
@@ -4498,7 +4693,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>173</v>
